--- a/response_sheet.xlsx
+++ b/response_sheet.xlsx
@@ -177,13 +177,6 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
       </table:table>
       <table:table table:name="Sheet2" table:style-name="ta3">
         <table:table-column table:style-name="co5" table:default-cell-style-name="Default"/>
@@ -279,13 +272,6 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
       </table:table>
       <table:table table:name="Sheet3" table:style-name="ta3">
         <table:table-column table:style-name="co7" table:default-cell-style-name="Default"/>
@@ -381,13 +367,6 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
       </table:table>
       <table:table table:name="Sheet4" table:style-name="ta3">
         <table:table-column table:style-name="co9" table:default-cell-style-name="Default"/>
@@ -483,13 +462,6 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
       </table:table>
       <table:table table:name="Sheet5" table:style-name="ta3">
         <table:table-column table:style-name="co11" table:default-cell-style-name="Default"/>
@@ -585,13 +557,6 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
       </table:table>
       <table:table table:name="Sheet6" table:style-name="ta3">
         <table:table-column table:style-name="co13" table:default-cell-style-name="Default"/>
@@ -677,13 +642,6 @@
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Lets see</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
@@ -723,11 +681,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2022-05-23T15:39:28.831306354</meta:creation-date>
-    <dc:date>2022-05-27T15:51:35.152611472</dc:date>
-    <meta:editing-duration>PT9H29M24S</meta:editing-duration>
-    <meta:editing-cycles>63</meta:editing-cycles>
+    <dc:date>2022-05-30T11:51:45.057031482</dc:date>
+    <meta:editing-duration>PT9H29M44S</meta:editing-duration>
+    <meta:editing-cycles>64</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="7" meta:cell-count="99" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="7" meta:cell-count="93" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -739,7 +697,7 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">19304</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">5870</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">5418</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -909,7 +867,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">sAH+/0hQX0xhc2VySmV0X00xNTM2ZG5mX01GUF81QTY0OEFfAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUF9MYXNlckpldF9NMTUzNmRuZl9NRlBfNQAWAAMA0QAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9SFBfTGFzZXJKZXRfTTE1MzZkbmZfTUZQXzVBNjQ4QV8Kb3JpZW50YXRpb249UG9ydHJhaXQKY29waWVzPTEKY29sbGF0ZT1mYWxzZQptYXJnaW5kYWp1c3RtZW50PTAsMCwwLDAKY29sb3JkZXB0aD0yNApwc2xldmVsPTAKcGRmZGV2aWNlPTEKY29sb3JkZXZpY2U9MApQUERDb250ZXhEYXRhClBhZ2VTaXplOkE0AER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">sAH+/0hQX0xhc2VySmV0X00xNTM2ZG5mX01GUF81QTY0OEFfAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUF9MYXNlckpldF9NMTUzNmRuZl9NRlBfNQAWAAMA0QAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9SFBfTGFzZXJKZXRfTTE1MzZkbmZfTUZQXzVBNjQ4QV8Kb3JpZW50YXRpb249UG9ydHJhaXQKY29waWVzPTEKY29sbGF0ZT1mYWxzZQptYXJnaW5kYWp1c3RtZW50PTAsMCwwLDAKY29sb3JkZXB0aD0yNApwc2xldmVsPTAKcGRmZGV2aWNlPTEKY29sb3JkZXZpY2U9MApQUERDb250ZXhEYXRhCkR1cGxleDpOb25lAFBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -1074,9 +1032,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2022-05-27">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2022-05-30">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="15:51:12.561326500">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="11:51:24.543343106">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/response_sheet.xlsx
+++ b/response_sheet.xlsx
@@ -86,17 +86,17 @@
     <style:style style:name="ta2" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="false" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:wrap-option="wrap"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Serif" fo:font-size="10pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Serif" fo:font-size="10pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap"/>
       <style:paragraph-properties fo:text-align="end"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Serif" fo:font-size="10pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
@@ -107,16 +107,16 @@
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce10"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Question</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Replies</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Status</text:p>
           </table:table-cell>
         </table:table-row>
@@ -132,7 +132,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p> Ok bye</text:p>
+            <text:p>Ok bye</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
@@ -447,7 +447,7 @@
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>pretty much and is there any other technology </text:p>
+            <text:p>pretty much and is there any other technology</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
@@ -475,16 +475,16 @@
       </table:table>
       <table:table table:name="Sheet2" table:style-name="ta1">
         <table:table-column table:style-name="co4" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="ce10"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Question</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Replies</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Status</text:p>
           </table:table-cell>
         </table:table-row>
@@ -845,22 +845,22 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:style-name="ce11"/>
           <table:table-cell/>
         </table:table-row>
       </table:table>
       <table:table table:name="Sheet3" table:style-name="ta1">
         <table:table-column table:style-name="co6" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce10"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Question</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Replies</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Status</text:p>
           </table:table-cell>
         </table:table-row>
@@ -936,252 +936,252 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have only 4.5 years of experience in which 1.5 years of experience in python</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have only 4.5 years of experience in which 1.5 years of experience in python</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 2 years in this technology</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked around four and half years of experience in this technology</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 4 years in this technology</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 4 years and 6 months in this technology</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 4 years and 6 months in this technology</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have total 5 years of experience</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am fresher so I have 0 years of experience</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have 7 months of experience</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have three and half years of experience in it </text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have total 5 years of experience in which i work 2 years in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have total 3.5 years of experience but not in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Yes I have overall 2.5 years of experience</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ok one year and 6 months of experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>23 months of experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I only have few months of experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Yes I did 2 years development in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am new in python so i have no experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Is there any other technology because i do not have experience in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ok I worked in python 2 years ago now i am working in other technology.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Since 2 years I am working in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Currently I am working in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am pro in it. I have 7 years of experience in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have 3 years of experience in it but how much experience need for this job.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sorry I do not have experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 2 years in python but it was 2 years ago.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am having 24 months of experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Already I am working in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am at intermediate level in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am at starting level in pyhton.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have done some certification in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have done diploma cerification course in  python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Yes I have 2 years in python and one year in ML.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
         <table:table-row table:style-name="ro5">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have only 4.5 years of experience in which 1.5 years of experience in python</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have only 4.5 years of experience in which 1.5 years of experience in python</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 2 years in this technology</text:p>
+            <text:p>Ok I have 2 months of experience so how much experience is required for this post.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked around four and half years of experience in this technology</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 4 years in this technology</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 4 years and 6 months in this technology</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 4 years and 6 months in this technology</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have total 5 years of experience</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am fresher so I have 0 years of experience</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have 7 months of experience</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have three and half years of experience in it </text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have total 5 years of experience in which i work 2 years in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have total 3.5 years of experience but not in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes I have overall 2.5 years of experience</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ok one year and 6 months of experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>23 months of experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I only have few months of experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes I did 2 years development in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am new in python so i have no experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Is there any other technology because i do not have experience in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ok I worked in python 2 years ago now i am working in other technology.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Since 2 years I am working in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Currently I am working in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am pro in it. I have 7 years of experience in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have 3 years of experience in it but how much experience need for this job.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sorry I do not have experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 2 years in python but it was 2 years ago.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am having 24 months of experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Already I am working in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am at intermediate level in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am at starting level in pyhton.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have done some certification in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have done diploma cerification course in  python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes I have 2 years in python and one year in ML.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Ok I have 2 months of experience so how much experience is required for this post.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have 6 months of experience but how much experience is needed for this job.</text:p>
@@ -1219,16 +1219,16 @@
       </table:table>
       <table:table table:name="Sheet4" table:style-name="ta1">
         <table:table-column table:style-name="co8" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co9" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co9" table:default-cell-style-name="ce10"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Question</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Replies</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Status</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1290,7 +1290,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am paid $2.5 lakh every month.</text:p>
@@ -1360,7 +1360,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am expecting around 5 to 7 lpa</text:p>
@@ -1514,7 +1514,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>My net income is 10 k per month</text:p>
@@ -1537,12 +1537,12 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="25000" calcext:value-type="float">
+          <table:table-cell table:style-name="ce12" office:value-type="float" office:value="25000" calcext:value-type="float">
             <text:p>25000</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am expecting around 5 to 7 lpa</text:p>
@@ -1587,16 +1587,16 @@
       </table:table>
       <table:table table:name="Sheet5" table:style-name="ta1">
         <table:table-column table:style-name="co10" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co11" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co11" table:default-cell-style-name="ce10"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Question</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Replies</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Status</text:p>
           </table:table-cell>
         </table:table-row>
@@ -1632,7 +1632,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="25000" calcext:value-type="float">
+          <table:table-cell table:style-name="ce12" office:value-type="float" office:value="25000" calcext:value-type="float">
             <text:p>25000</text:p>
           </table:table-cell>
           <table:table-cell/>
@@ -1955,16 +1955,16 @@
       </table:table>
       <table:table table:name="Sheet6" table:style-name="ta1">
         <table:table-column table:style-name="co12" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co13" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co13" table:default-cell-style-name="ce10"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Question</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Replies</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Status</text:p>
           </table:table-cell>
         </table:table-row>
@@ -2180,7 +2180,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>You can contact me on next monday at 8pm</text:p>
@@ -2349,9 +2349,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2022-05-23T15:39:28.831306354</meta:creation-date>
-    <dc:date>2022-05-30T18:27:56.144663951</dc:date>
-    <meta:editing-duration>PT9H35M30S</meta:editing-duration>
-    <meta:editing-cycles>77</meta:editing-cycles>
+    <dc:date>2022-06-08T14:52:03.203129989</dc:date>
+    <meta:editing-duration>PT9H36M43S</meta:editing-duration>
+    <meta:editing-cycles>79</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="7" meta:cell-count="327" meta:object-count="0"/>
     <meta:user-defined meta:name="ProgId">Excel.Sheet</meta:user-defined>
@@ -2372,8 +2372,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">4</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">4</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">49</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -2382,7 +2382,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">48</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">37</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -2498,7 +2498,7 @@
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">Sheet6</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1346</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
@@ -2703,9 +2703,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2022-05-30">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2022-06-08">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="18:23:09.575347268">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="14:51:02.453442586">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/response_sheet.xlsx
+++ b/response_sheet.xlsx
@@ -27,7 +27,7 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="11.927cm"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="6.509cm"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="10.211cm"/>
     </style:style>
     <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.258cm"/>
@@ -69,10 +69,10 @@
       <style:table-row-properties style:row-height="0.452cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro2" style:family="table-row">
+      <style:table-row-properties style:row-height="1.236cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro3" style:family="table-row">
       <style:table-row-properties style:row-height="0.841cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="1.236cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro4" style:family="table-row">
       <style:table-row-properties style:row-height="2.027cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -125,6 +125,20 @@
             <text:p>I am phoning from Dell Technologies. Is it right time to talk?</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>you can contact at the end of this month</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>anytime after this week</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>yeah tell</text:p>
           </table:table-cell>
           <table:table-cell/>
@@ -132,21 +146,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Ok bye</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>you can contact at the end of this month</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>anytime after this week</text:p>
+            <text:p>ok bye</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
@@ -199,7 +199,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>yes i am available but give me 2 min i am just going outside</text:p>
@@ -262,7 +262,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>currently i am at outside so not possible to talk</text:p>
@@ -346,21 +346,21 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>ok give me brief information about your company</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>please tell me the roles and responsibilities for this post</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Provide me your contact number as well emai id for contact.</text:p>
@@ -409,14 +409,14 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>ok guide me for roles and responsibilities for this job.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>please share the roles and responsibilities of this job profile</text:p>
@@ -444,21 +444,21 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>pretty much and is there any other technology</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>i have 3 years of experience but what is the requirement</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>i have 3 years of experience but how much you required</text:p>
@@ -873,343 +873,343 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have three years of experience but no experience in python</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I dont know anything about python</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have one eighty days of experience in python</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I dont know anything about this</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>No No I do not have any experience in python</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Very less experience of python</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>five and half experience in python</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I dont know anything about python</text:p>
+            <text:p>let me think ammm I have approx 2 years of experience in it</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Overall i have 5 years of experience in software development in which i have 3 years of experience in python</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have one eighty days of experience in python</text:p>
+            <text:p>I have only 4.5 years of experience in which 1.5 years of experience in python</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I dont know anything about this</text:p>
+            <text:p>I have only 4.5 years of experience in which 1.5 years of experience in python</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 2 years in this technology</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>No No I do not have any experience in python</text:p>
+            <text:p>I worked around four and half years of experience in this technology</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 4 years in this technology</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 4 years and 6 months in this technology</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 4 years and 6 months in this technology</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have total 5 years of experience</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am fresher so I have 0 years of experience</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have 7 months of experience</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have three and half years of experience in it </text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Very less experience of python</text:p>
+            <text:p>I have total 5 years of experience in which i work 2 years in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have total 3.5 years of experience but not in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Yes I have overall 2.5 years of experience</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ok one year and 6 months of experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>23 months of experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I only have few months of experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Yes I did 2 years development in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am new in python so i have no experience in it.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>five and half experience in python</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>let me think ammm I have approx 2 years of experience in it</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro4">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Overall i have 5 years of experience in software development in which i have 3 years of experience in python</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have only 4.5 years of experience in which 1.5 years of experience in python</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have only 4.5 years of experience in which 1.5 years of experience in python</text:p>
+            <text:p>Is there any other technology because i do not have experience in python.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 2 years in this technology</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked around four and half years of experience in this technology</text:p>
+            <text:p>ok I worked in python 2 years ago now i am working in other technology.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Since 2 years I am working in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Currently I am working in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am pro in it. I have 7 years of experience in python.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 4 years in this technology</text:p>
+            <text:p>I have 3 years of experience in it but how much experience need for this job.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sorry I do not have experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I worked 2 years in python but it was 2 years ago.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am having 24 months of experience in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Already I am working in it.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am at intermediate level in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am at starting level in pyhton.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have done some certification in python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I have done diploma cerification course in  python.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Yes I have 2 years in python and one year in ML.</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Ok I have 2 months of experience so how much experience is required for this post.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 4 years and 6 months in this technology</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 4 years and 6 months in this technology</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have total 5 years of experience</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am fresher so I have 0 years of experience</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have 7 months of experience</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have three and half years of experience in it </text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have total 5 years of experience in which i work 2 years in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have total 3.5 years of experience but not in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes I have overall 2.5 years of experience</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ok one year and 6 months of experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>23 months of experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I only have few months of experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes I did 2 years development in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am new in python so i have no experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Is there any other technology because i do not have experience in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ok I worked in python 2 years ago now i am working in other technology.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Since 2 years I am working in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Currently I am working in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am pro in it. I have 7 years of experience in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have 3 years of experience in it but how much experience need for this job.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sorry I do not have experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I worked 2 years in python but it was 2 years ago.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am having 24 months of experience in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Already I am working in it.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am at intermediate level in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am at starting level in pyhton.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have done some certification in python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I have done diploma cerification course in  python.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Yes I have 2 years in python and one year in ML.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Ok I have 2 months of experience so how much experience is required for this post.</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have 6 months of experience but how much experience is needed for this job.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have no experience in this technology.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have zero months of experience in it.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I didnt heard about this python technology.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Sorry i am expert in different technology not in python.</text:p>
@@ -1248,14 +1248,14 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>i am earning rupees 50k per month</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have a yearly salary of 15 lakh INR</text:p>
@@ -1269,21 +1269,21 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Every month, I make 25 k in salary.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Every month, I make dollar 25 k in salary.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I earn 100k every month in wages.</text:p>
@@ -1304,7 +1304,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>My ctc is 20k rupee every month.</text:p>
@@ -1374,7 +1374,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I'm anticipating between 80 to 90 k.</text:p>
@@ -1402,14 +1402,14 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am earning 50k per month expecting 12 lpa</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am earning 50k per month expecting 70 to 80 inr</text:p>
@@ -1430,14 +1430,14 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>where is tommato  lac per annum month</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>i am earning 90k per month per week per dayweekly earning</text:p>
@@ -1465,7 +1465,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have a yearly salary of 15 lakh INR</text:p>
@@ -1479,14 +1479,14 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Every month, I make 25 k in salary</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I earn 100k every month in wages</text:p>
@@ -1556,7 +1556,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I'm anticipating between 80 to 90 k</text:p>
@@ -1665,42 +1665,42 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Every month, I make 25 k in salary</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>i am earning 50k per month</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>I am earning 50k per month expecting 12 lpa</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+        </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Every month, I make 25 k in salary</text:p>
+            <text:p>I am earning 50k per month expecting 70 to 80 inr</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>i am earning 50k per month</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am earning 50k per month expecting 12 lpa</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>I am earning 50k per month expecting 70 to 80 inr</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>i am earning 90k per month per week per dayweekly earning</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am expecting around 5 to 7 lpa</text:p>
@@ -1721,28 +1721,28 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am paid 2.5 lakh every month</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I earn 100k every month in wages</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have a 90k monthly income</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have a yearly salary of 15 lakh INR</text:p>
@@ -1763,14 +1763,14 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I'm anticipating between 80 to 90 k</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>My ctc is 20k every month</text:p>
@@ -1784,35 +1784,35 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am paid $2.5 lakh every month.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I earn 100k every month in wages.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have a 90k monthly income.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have a 9k daily income.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I have a yearly salary of 15 lakh INR</text:p>
@@ -1833,56 +1833,56 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I'm anticipating between 80 to 90 k.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>My ctc is 20k every week.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>My ctc is 20k rupee every month.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>My net income is 10 k per day</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>My net income is 10 k per month</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>my weekly income is 2.5k</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>some where around 20 to 40 k</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>some where around 20 to 40 k</text:p>
@@ -1903,42 +1903,42 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>where is tommato  lac per annum month</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am expecting around 5 to 7 lpa</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>i am earning rupees 50k per month</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>i am earning 50k inr per month</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Every month, I make dollar 25 k in salary.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Every month, I make 25 k in salary.</text:p>
@@ -2145,7 +2145,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>You can call me on everyday between 2 to 3 pm.</text:p>
@@ -2159,7 +2159,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am occupied in something so you can contact me today around 7 pm</text:p>
@@ -2201,35 +2201,35 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>on weekend there is availibility So we can connect</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Yes I am available on this weekend. So we can connect on that day.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>My schedule is tight today please call me another time</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I probably become free after end of the day so please call me then.</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>I am not available today please reschedule my call on weekend</text:p>
@@ -2243,14 +2243,14 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Please let me know in advance for further meeting</text:p>
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>thanks for calling but today I am busy can you please call me later</text:p>
@@ -2349,9 +2349,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2022-05-23T15:39:28.831306354</meta:creation-date>
-    <dc:date>2022-06-08T14:52:03.203129989</dc:date>
-    <meta:editing-duration>PT9H36M43S</meta:editing-duration>
-    <meta:editing-cycles>79</meta:editing-cycles>
+    <dc:date>2022-06-14T13:08:02.344783068</dc:date>
+    <meta:editing-duration>PT11H52M11S</meta:editing-duration>
+    <meta:editing-cycles>82</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="7" meta:cell-count="327" meta:object-count="0"/>
     <meta:user-defined meta:name="ProgId">Excel.Sheet</meta:user-defined>
@@ -2365,15 +2365,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">20693</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">26927</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">24396</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">23029</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">49</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">4</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -2382,7 +2382,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">37</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -2391,7 +2391,7 @@
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Sheet2">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">51</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -2400,7 +2400,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">39</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -2536,7 +2536,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">sAH+/0hQX0xhc2VySmV0X00xNTM2ZG5mX01GUF81QTY0OEFfAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUF9MYXNlckpldF9NMTUzNmRuZl9NRlBfNQAWAAMA0QAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9SFBfTGFzZXJKZXRfTTE1MzZkbmZfTUZQXzVBNjQ4QV8Kb3JpZW50YXRpb249UG9ydHJhaXQKY29waWVzPTEKY29sbGF0ZT1mYWxzZQptYXJnaW5kYWp1c3RtZW50PTAsMCwwLDAKY29sb3JkZXB0aD0yNApwc2xldmVsPTAKcGRmZGV2aWNlPTEKY29sb3JkZXZpY2U9MApQUERDb250ZXhEYXRhCkR1cGxleDpOb25lAFBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpEdXBsZXg6Tm9uZQBQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -2558,7 +2558,7 @@
       <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
       <config:config-item config:name="SaveThumbnail" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string">HP_LaserJet_M1536dnf_MFP_5A648A_</config:config-item>
+      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
@@ -2703,9 +2703,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2022-06-08">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2022-06-14">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="14:51:02.453442586">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="13:07:27.591717991">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
